--- a/pm_notes/向日葵-安卓客户端需求整理列表-cxs.xlsx
+++ b/pm_notes/向日葵-安卓客户端需求整理列表-cxs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D69018F-7EA2-446A-9BD1-DF02B10427AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF789859-4F1B-40FF-AFB8-B9EC4F19F849}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{B3F108BD-E476-4169-A638-40D3C61C2E2D}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>梯田科技控制手机有该功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被控端，可以结束被控，但是要输入帐号密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端有结束被控入口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,19 +365,97 @@
     <t>编号</t>
   </si>
   <si>
-    <t>向日葵安卓客户端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>远控安卓特型设备，点定位置不一致，及截屏功能优化-是否能不询问截屏？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://oray.tudu.im/frame#m=view&amp;tid=167ddc5720e63f41&amp;page=1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A014</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端退到后台，会掉线，需测试跟进具体机型和系统版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远控安卓特型设备，点定位置不一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录时要输入密码；关闭客户端时，可以直接返回到手机桌面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高没有返回键的手机的使用体验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被控端，可以结束被控，但是要输入密码验证身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A016</t>
+  </si>
+  <si>
+    <t>扩展功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV-quick support有该功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>被控手机与主控端可以互发消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基于向日葵安卓客户端v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.8</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -511,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +621,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -863,83 +949,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A18995B-3F48-4A7C-9720-DB3B1E54C934}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
-    <col min="5" max="5" width="86.5" customWidth="1"/>
-    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="90.125" customWidth="1"/>
+    <col min="6" max="6" width="43.125" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+    <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>28</v>
@@ -948,21 +1034,23 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>28</v>
@@ -971,150 +1059,149 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="H10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>33</v>
@@ -1133,13 +1220,13 @@
         <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
@@ -1162,109 +1249,185 @@
     </row>
     <row r="13" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+    <row r="19" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>0</v>
+      <c r="H19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId1" location="m=view&amp;tid=167ddc5720e63f41&amp;page=1" xr:uid="{DE7AC583-8633-413B-A8AF-863193CF33AD}"/>

--- a/pm_notes/向日葵-安卓客户端需求整理列表-cxs.xlsx
+++ b/pm_notes/向日葵-安卓客户端需求整理列表-cxs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF789859-4F1B-40FF-AFB8-B9EC4F19F849}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B45FFB-B349-4B88-93C0-E6166C7930A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{B3F108BD-E476-4169-A638-40D3C61C2E2D}"/>
   </bookViews>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通过向日葵软件，能够打通同一个局域网下电脑信息互通；文件传输功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>手机与电脑信息（文件）互发互收</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,10 +286,6 @@
   </si>
   <si>
     <t>A004</t>
-  </si>
-  <si>
-    <t>点远程控制，一直在加载中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主控端不知道被控端是否可远程控制</t>
@@ -455,6 +447,14 @@
       </rPr>
       <t>3.8</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过向日葵软件，能够打通同一个局域网下电脑信息互通；文件传输功能（聊天框的形式）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓设备没root，在控制端主机的”远程控制“按钮点击后提示设备需要root才能被控制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +628,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,13 +952,13 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="33.375" customWidth="1"/>
     <col min="5" max="5" width="90.125" customWidth="1"/>
     <col min="6" max="6" width="43.125" customWidth="1"/>
@@ -966,206 +966,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="A1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
@@ -1174,50 +1174,50 @@
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>1</v>
@@ -1226,21 +1226,21 @@
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>1</v>
@@ -1254,43 +1254,43 @@
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="G13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="H13" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>9</v>
@@ -1299,11 +1299,9 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1329,18 +1327,18 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>9</v>
@@ -1349,17 +1347,17 @@
     </row>
     <row r="17" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>15</v>
@@ -1370,58 +1368,60 @@
       <c r="H17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
